--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seungminlee/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seungminlee/Documents/GitHub/check_RFID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4510054-FD46-A843-8F9D-AFC190003C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F0C45F3B-B320-AA4D-A095-090A599F0EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{83AE5D31-FFF7-D84E-977F-C4525888F1EE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{83AE5D31-FFF7-D84E-977F-C4525888F1EE}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="7" uniqueCount="7">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="7" uniqueCount="5">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,14 +58,6 @@
   </si>
   <si>
     <t>jeju</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,7 +425,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -451,7 +443,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>12</v>
@@ -462,7 +454,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>13</v>
